--- a/src/main/resources/rules/cup-rules.xlsx
+++ b/src/main/resources/rules/cup-rules.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2D19E7-32AB-6E4B-9FF1-22E94256F308}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED492C03-0BF7-3E48-93CF-C538C5783F19}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="186">
   <si>
     <t>Notes</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Retail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>mti matches</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -217,18 +213,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Normal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Voided</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RetailVoied</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>context</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -470,30 +454,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PreAuthComp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PreAuthCompVoided</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>authRetailReverseHandler</t>
   </si>
   <si>
-    <t>RetailReverse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reverse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>authRetailVoidedReverseHandler</t>
-  </si>
-  <si>
-    <t>RetailVoidedReverse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>authCashHandler</t>
@@ -623,6 +587,138 @@
   <si>
     <t>银联交易分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>RetailVoided</t>
+  </si>
+  <si>
+    <t>RetailReverse</t>
+  </si>
+  <si>
+    <t>RetailVoidedReverse</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>CashReverse</t>
+  </si>
+  <si>
+    <t>PreAuth</t>
+  </si>
+  <si>
+    <t>PreAuthVoided</t>
+  </si>
+  <si>
+    <t>PreAuthReverse</t>
+  </si>
+  <si>
+    <t>PreAuthVoidedReverse</t>
+  </si>
+  <si>
+    <t>PreAuthComp</t>
+  </si>
+  <si>
+    <t>PreAuthCompVoided</t>
+  </si>
+  <si>
+    <t>PreAuthCompReverse</t>
+  </si>
+  <si>
+    <t>PreAuthCompVoidedReverse</t>
+  </si>
+  <si>
+    <t>PreAuthCompAdvice</t>
+  </si>
+  <si>
+    <t>Deposite</t>
+  </si>
+  <si>
+    <t>DepositeReverse</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>CreditAdvice</t>
+  </si>
+  <si>
+    <t>Inq</t>
+  </si>
+  <si>
+    <t>CreditVoided</t>
+  </si>
+  <si>
+    <t>CreditVoidedReverse</t>
+  </si>
+  <si>
+    <t>CreditConfirm</t>
+  </si>
+  <si>
+    <t>AcctVerification</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>LoadReverse</t>
+  </si>
+  <si>
+    <t>EntrustBuild</t>
+  </si>
+  <si>
+    <t>EntrustBuildReverse</t>
+  </si>
+  <si>
+    <t>EntrustTermination</t>
+  </si>
+  <si>
+    <t>EntrustTerminationReverse</t>
+  </si>
+  <si>
+    <t>XmEntrustBuild</t>
+  </si>
+  <si>
+    <t>XmEntrustBuildReverse</t>
+  </si>
+  <si>
+    <t>XmEntrustChange</t>
+  </si>
+  <si>
+    <t>XmEntrustChangeReverse</t>
+  </si>
+  <si>
+    <t>XmEntrustTermination</t>
+  </si>
+  <si>
+    <t>XmEntrustTerminationReverse</t>
+  </si>
+  <si>
+    <t>XmAuthRetail</t>
+  </si>
+  <si>
+    <t>XmAcctVerification</t>
+  </si>
+  <si>
+    <t>GovAaccVerification</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Voided</t>
+  </si>
+  <si>
+    <t>Reverse</t>
+  </si>
+  <si>
+    <t>Advice</t>
+  </si>
+  <si>
+    <t>Advie</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1197,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1114,7 +1210,7 @@
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
     <col min="10" max="10" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1124,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1140,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -1156,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1213,53 +1309,53 @@
     <row r="6" spans="1:10" s="2" customFormat="1" ht="13" outlineLevel="1">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1">
       <c r="A7" s="13"/>
       <c r="B7" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="14" t="s">
-        <v>20</v>
-      </c>
       <c r="J7" s="14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="28.5" customHeight="1">
@@ -1274,7 +1370,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -1285,540 +1381,614 @@
         <v>13</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="13">
       <c r="A9" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>21</v>
+      <c r="H9" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="13">
       <c r="A10" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>106</v>
+      <c r="H11" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="J12" s="20"/>
+      <c r="H12" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="H13" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="H14" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
-      <c r="H15" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="H15" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" s="19" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="H16" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="H17" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="D18" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="H18" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="D19" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="19" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="19" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+        <v>107</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="D22" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
-      <c r="H22" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
+      <c r="H22" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="H24" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
-      <c r="H25" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="H25" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
-      <c r="H26" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J26" s="19" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
-      <c r="H27" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
+      <c r="H27" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
-      <c r="H28" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
+      <c r="H28" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J28" s="19" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
-      <c r="H29" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
+      <c r="H29" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
-      <c r="H30" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
+      <c r="H30" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="J30" s="19" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
-      <c r="H31" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
+      <c r="H31" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I31" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J31" s="19" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
+      <c r="H32" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J32" s="19" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D33" s="6">
         <v>28</v>
@@ -1826,21 +1996,25 @@
       <c r="E33" s="7"/>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
-      <c r="H33" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
+      <c r="H33" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J33" s="19" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D34" s="6">
         <v>28</v>
@@ -1848,21 +2022,25 @@
       <c r="E34" s="7"/>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
-      <c r="H34" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
+      <c r="H34" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J34" s="19" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D35" s="6">
         <v>28</v>
@@ -1870,21 +2048,25 @@
       <c r="E35" s="7"/>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
-      <c r="H35" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
+      <c r="H35" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D36" s="6">
         <v>28</v>
@@ -1892,321 +2074,385 @@
       <c r="E36" s="7"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
-      <c r="H36" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
+      <c r="H36" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="I36" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J36" s="19" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
-      <c r="H37" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
+      <c r="H37" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I37" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J37" s="19" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
-      <c r="H38" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
+      <c r="H38" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I38" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="J38" s="19" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
-      <c r="H39" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
+      <c r="H39" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J39" s="19" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
-      <c r="H40" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
+      <c r="H40" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I40" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J40" s="19" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
+      <c r="H41" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
-      <c r="H42" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
+      <c r="H42" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
-      <c r="H43" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
+      <c r="H43" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
-      <c r="H44" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
+      <c r="H44" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J44" s="19" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
+      <c r="H45" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J45" s="19" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
-      <c r="H46" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
+      <c r="H46" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
-      <c r="H47" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
+      <c r="H47" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="J47" s="19" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
-      <c r="H48" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
+      <c r="H48" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J48" s="19" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
-      <c r="H49" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
+      <c r="H49" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J49" s="19" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="7"/>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
-      <c r="H50" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
+      <c r="H50" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J50" s="19" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="7"/>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
-      <c r="H51" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
+      <c r="H51" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="J51" s="19" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D52" s="6">
         <v>81</v>
@@ -2214,51 +2460,63 @@
       <c r="E52" s="7"/>
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
-      <c r="H52" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
+      <c r="H52" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J52" s="19" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
-      <c r="H53" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
+      <c r="H53" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="J53" s="19" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
-      <c r="H54" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
+      <c r="H54" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J54" s="19" t="s">
+        <v>181</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2292,350 +2550,350 @@
         <v>11</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="D12" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="D15" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D26" s="6">
         <v>28</v>
@@ -2644,13 +2902,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D27" s="6">
         <v>28</v>
@@ -2659,13 +2917,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D28" s="6">
         <v>28</v>
@@ -2674,13 +2932,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B29" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D29" s="6">
         <v>28</v>
@@ -2689,208 +2947,208 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D45" s="6">
         <v>81</v>
@@ -2899,26 +3157,26 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>

--- a/src/main/resources/rules/cup-rules.xlsx
+++ b/src/main/resources/rules/cup-rules.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED492C03-0BF7-3E48-93CF-C538C5783F19}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB22AF8-C668-A64A-AC3F-97D2A16876F3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="185">
   <si>
     <t>Notes</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -194,13 +194,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Message</t>
-  </si>
-  <si>
-    <t>Message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>field("b025") matches</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -577,10 +570,6 @@
     <t>govAaccVerificationHandler</t>
   </si>
   <si>
-    <t>cn.t1tan.auth.comm.Message</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cn.t1tan.auth.comm.AuthContext context</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -719,6 +708,14 @@
   </si>
   <si>
     <t>Advie</t>
+  </si>
+  <si>
+    <t>cn.t1tan.auth.comm.AuthMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1197,7 +1194,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F8" sqref="F8"/>
+      <selection pane="topRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -1220,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -1236,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
@@ -1252,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -1309,27 +1306,27 @@
     <row r="6" spans="1:10" s="2" customFormat="1" ht="13" outlineLevel="1">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="3" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1">
@@ -1338,24 +1335,24 @@
         <v>14</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" ht="28.5" customHeight="1">
@@ -1370,7 +1367,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -1381,614 +1378,614 @@
         <v>13</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="13">
       <c r="A9" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" ht="13">
       <c r="A10" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="H16" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J16" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J18" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J22" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J23" s="19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J25" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J26" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="7"/>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
       <c r="H28" s="19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="J28" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="7"/>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="H29" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J29" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J30" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
       <c r="H31" s="19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D33" s="6">
         <v>28</v>
@@ -1997,24 +1994,24 @@
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
       <c r="H33" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34" s="6">
         <v>28</v>
@@ -2023,24 +2020,24 @@
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="H34" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J34" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D35" s="6">
         <v>28</v>
@@ -2049,24 +2046,24 @@
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
       <c r="H35" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I35" s="19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J35" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D36" s="6">
         <v>28</v>
@@ -2075,384 +2072,384 @@
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
       <c r="H36" s="19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J36" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
       <c r="H37" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I37" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J37" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J38" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I39" s="19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J39" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="H40" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J40" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
       <c r="H41" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I41" s="19" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J41" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="H42" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I42" s="19" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J42" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
       <c r="H43" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I43" s="19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J43" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I44" s="19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="7"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
       <c r="H45" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I45" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J45" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
       <c r="H46" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="H47" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J47" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="7"/>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
       <c r="H48" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I48" s="19" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J48" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I49" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="7"/>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
       <c r="H50" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I50" s="19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J50" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="7"/>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
       <c r="H51" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I51" s="19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J51" s="19" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D52" s="6">
         <v>81</v>
@@ -2461,61 +2458,61 @@
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I52" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J52" s="19" t="s">
         <v>178</v>
-      </c>
-      <c r="J52" s="19" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="7"/>
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="H53" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I53" s="19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J53" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="7"/>
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
       <c r="H54" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2550,350 +2547,350 @@
         <v>11</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" s="6">
         <v>28</v>
@@ -2902,13 +2899,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="6">
         <v>28</v>
@@ -2917,13 +2914,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D28" s="6">
         <v>28</v>
@@ -2932,13 +2929,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="6">
         <v>28</v>
@@ -2947,208 +2944,208 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D45" s="6">
         <v>81</v>
@@ -3157,26 +3154,26 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="7"/>
